--- a/Cuadros/Revisión_311024.xlsx
+++ b/Cuadros/Revisión_311024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769DD9D-8645-496E-979E-0CC16B431611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4EECC-E8CD-426E-9B88-1EA6B098534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{45047382-215B-4FC7-8F3A-3A39D20BF11D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{45047382-215B-4FC7-8F3A-3A39D20BF11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>(a) Zero budget</t>
   </si>
@@ -128,22 +128,43 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>Brecha media</t>
-  </si>
-  <si>
-    <t>Brecha mínima</t>
-  </si>
-  <si>
-    <t>Brecha máximo</t>
-  </si>
-  <si>
-    <t>Brecha total</t>
-  </si>
-  <si>
     <t>Brecha_Media</t>
   </si>
   <si>
     <t>Registro</t>
+  </si>
+  <si>
+    <t>brecha_media</t>
+  </si>
+  <si>
+    <t>brecha_minima</t>
+  </si>
+  <si>
+    <t>brecha_maxima</t>
+  </si>
+  <si>
+    <t>brecha_total</t>
+  </si>
+  <si>
+    <t>Total casos</t>
+  </si>
+  <si>
+    <t>Casos con brecha &gt; 200000</t>
+  </si>
+  <si>
+    <t>% casos con brecha &gt;200000</t>
+  </si>
+  <si>
+    <t>Casos con brecha &gt; 100000</t>
+  </si>
+  <si>
+    <t>% casos con brecha &gt;100000</t>
+  </si>
+  <si>
+    <t>Casos SIN brecha</t>
+  </si>
+  <si>
+    <t>% casos SIN brecha</t>
   </si>
 </sst>
 </file>
@@ -152,8 +173,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -222,37 +243,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +284,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -607,274 +630,274 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="2">
         <v>2021</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2022</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>167</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>148</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>137</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>196</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>189</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>192</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>124</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>135</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>126</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>142</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>173</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>189</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>93</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>89</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>107</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>101</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>121</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>135</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>102</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>113</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>125</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>49</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>55</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>61</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>30</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>37</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>42</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>18</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>21</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>14</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>17</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>20</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>21</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>22</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -888,7 +911,7 @@
       <c r="A21" s="1">
         <v>2021</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>215636</v>
       </c>
     </row>
@@ -896,7 +919,7 @@
       <c r="A22" s="1">
         <v>2022</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>226215</v>
       </c>
     </row>
@@ -904,7 +927,7 @@
       <c r="A23" s="1">
         <v>2023</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>236252</v>
       </c>
     </row>
@@ -932,66 +955,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2021</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>53186</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>102609</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>253696</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2022</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>52555</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>86786</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>269761</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>2023</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>62279</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>128549</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>282511</v>
       </c>
     </row>
@@ -1015,44 +1038,44 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="16.81640625" style="7" customWidth="1"/>
+    <col min="2" max="8" width="16.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1060,25 +1083,25 @@
       <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>358166</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>742698</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>922257</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>290628</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>414620</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>1250128</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>753805</v>
       </c>
     </row>
@@ -1086,25 +1109,25 @@
       <c r="A4" s="1">
         <v>2022</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>376430</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>729214</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>928915</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>284910</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>421443</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>1203274</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>739546</v>
       </c>
     </row>
@@ -1112,31 +1135,31 @@
       <c r="A5" s="1">
         <v>2023</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>394859</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>774341</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>890313</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>289870</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>429598</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>1180174</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>716238</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1149,136 +1172,216 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9332A519-B6ED-44AD-8618-C3E0363218D9}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5">
+        <v>220677.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-2980000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>246717500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>196535.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5">
+        <v>258333.3</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>367148.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>271496.40000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>163993.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5">
+        <v>355937.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>303516.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6">
-        <v>14850.26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="6">
-        <v>-2980000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="6">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6">
-        <v>17107500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6">
-        <v>-33378.019999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-175495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-93964.29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6">
-        <v>31288.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-32251.040000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-47941.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6">
-        <v>-45442.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
-        <v>74900.990099999995</v>
+      <c r="B16" s="5">
+        <v>142269.23000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6">
-        <v>24677.419399999999</v>
+      <c r="B17" s="5">
+        <v>89821.43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
-        <v>300.33370000000002</v>
+      <c r="B18" s="5">
+        <v>243734.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="21">
+        <v>20.187390000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15.67</v>
       </c>
     </row>
   </sheetData>

--- a/Cuadros/Revisión_311024.xlsx
+++ b/Cuadros/Revisión_311024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4EECC-E8CD-426E-9B88-1EA6B098534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB98388-4CC6-482A-9A10-6F8D8C311F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{45047382-215B-4FC7-8F3A-3A39D20BF11D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45047382-215B-4FC7-8F3A-3A39D20BF11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>(a) Zero budget</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>% casos SIN brecha</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>MÍNIMO DEL RANGO</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,6 +298,19 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -607,17 +626,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DAC94B-F131-466C-8C98-7441974A0DE5}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" customWidth="1"/>
     <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
@@ -630,17 +649,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2">
         <v>2021</v>
       </c>
@@ -891,15 +910,15 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -907,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2021</v>
       </c>
@@ -915,7 +934,7 @@
         <v>215636</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2022</v>
       </c>
@@ -923,12 +942,54 @@
         <v>226215</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2023</v>
       </c>
       <c r="B23" s="5">
         <v>236252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="5">
+        <v>160934</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="5">
+        <v>167676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="5">
+        <v>174206</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84234247-3BAA-469F-B7E4-5A32C6C11CEE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E14"/>
+      <selection activeCell="B12" sqref="B12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -955,17 +1016,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1018,10 +1079,79 @@
         <v>282511</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="5">
+        <v>41128</v>
+      </c>
+      <c r="C12" s="5">
+        <v>67065</v>
+      </c>
+      <c r="D12" s="5">
+        <v>189357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="5">
+        <v>39736</v>
+      </c>
+      <c r="C13" s="5">
+        <v>56875</v>
+      </c>
+      <c r="D13" s="5">
+        <v>200060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45219</v>
+      </c>
+      <c r="C14" s="5">
+        <v>84597</v>
+      </c>
+      <c r="D14" s="5">
+        <v>208882</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1029,34 +1159,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A339E49-ECB1-41AB-9E78-29DD53D7B34E}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="16.81640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
@@ -1105,7 +1236,7 @@
         <v>753805</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -1131,7 +1262,7 @@
         <v>739546</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2023</v>
       </c>
@@ -1157,9 +1288,119 @@
         <v>716238</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10"/>
-      <c r="I10" s="6"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="8">
+        <v>278337</v>
+      </c>
+      <c r="C11" s="8">
+        <v>581579</v>
+      </c>
+      <c r="D11" s="8">
+        <v>736625</v>
+      </c>
+      <c r="E11" s="8">
+        <v>226237</v>
+      </c>
+      <c r="F11" s="8">
+        <v>329302</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1061359</v>
+      </c>
+      <c r="H11" s="5">
+        <v>609734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="8">
+        <v>291689</v>
+      </c>
+      <c r="C12" s="8">
+        <v>569076</v>
+      </c>
+      <c r="D12" s="8">
+        <v>748079</v>
+      </c>
+      <c r="E12" s="8">
+        <v>221658</v>
+      </c>
+      <c r="F12" s="8">
+        <v>335789</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1014393</v>
+      </c>
+      <c r="H12" s="5">
+        <v>601465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="8">
+        <v>302504</v>
+      </c>
+      <c r="C13" s="8">
+        <v>596423</v>
+      </c>
+      <c r="D13" s="8">
+        <v>715825</v>
+      </c>
+      <c r="E13" s="8">
+        <v>225223</v>
+      </c>
+      <c r="F13" s="8">
+        <v>339275</v>
+      </c>
+      <c r="G13" s="8">
+        <v>993512</v>
+      </c>
+      <c r="H13" s="5">
+        <v>578346</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1174,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9332A519-B6ED-44AD-8618-C3E0363218D9}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>

--- a/Cuadros/Revisión_311024.xlsx
+++ b/Cuadros/Revisión_311024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB98388-4CC6-482A-9A10-6F8D8C311F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79374293-FED4-471F-97DF-5D7AF089D901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45047382-215B-4FC7-8F3A-3A39D20BF11D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{45047382-215B-4FC7-8F3A-3A39D20BF11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>(a) Zero budget</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>MÍNIMO DEL RANGO</t>
+  </si>
+  <si>
+    <t>promedio de los rangos medianos</t>
   </si>
 </sst>
 </file>
@@ -213,12 +216,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -249,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,6 +320,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -628,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DAC94B-F131-466C-8C98-7441974A0DE5}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1003,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84234247-3BAA-469F-B7E4-5A32C6C11CEE}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1146,8 +1159,79 @@
         <v>208882</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="5">
+        <v>18095</v>
+      </c>
+      <c r="C21" s="5">
+        <v>15000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>21349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20545</v>
+      </c>
+      <c r="C22" s="5">
+        <v>21429</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20625</v>
+      </c>
+      <c r="C23" s="5">
+        <v>20909</v>
+      </c>
+      <c r="D23" s="5">
+        <v>22393</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A10:A11"/>
@@ -1159,15 +1243,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A339E49-ECB1-41AB-9E78-29DD53D7B34E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="16.81640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1401,6 +1485,119 @@
       <c r="H13" s="5">
         <v>578346</v>
       </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20952</v>
+      </c>
+      <c r="C21" s="8">
+        <v>26364</v>
+      </c>
+      <c r="D21" s="8">
+        <v>27143</v>
+      </c>
+      <c r="E21" s="8">
+        <v>19783</v>
+      </c>
+      <c r="F21" s="8">
+        <v>21290</v>
+      </c>
+      <c r="G21" s="8">
+        <v>30000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="24">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20816</v>
+      </c>
+      <c r="C22" s="8">
+        <v>22308</v>
+      </c>
+      <c r="D22" s="8">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>20690</v>
+      </c>
+      <c r="F22" s="8">
+        <v>21515</v>
+      </c>
+      <c r="G22" s="8">
+        <v>22000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>22727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="24">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="8">
+        <v>21504</v>
+      </c>
+      <c r="C23" s="8">
+        <v>18571</v>
+      </c>
+      <c r="D23" s="8">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="8">
+        <v>23115</v>
+      </c>
+      <c r="F23" s="8">
+        <v>21923</v>
+      </c>
+      <c r="G23" s="8">
+        <v>26667</v>
+      </c>
+      <c r="H23" s="5">
+        <v>23077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="H24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
